--- a/src/TestOkur.WebApi/Application/Localization/tr.xlsx
+++ b/src/TestOkur.WebApi/Application/Localization/tr.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="156">
   <si>
     <t>Ad</t>
   </si>
@@ -473,13 +473,19 @@
   </si>
   <si>
     <t>Lutfen cevap anahtarini giriniz</t>
+  </si>
+  <si>
+    <t>AllFormsScanned</t>
+  </si>
+  <si>
+    <t>Tum formlar tarandi</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -488,6 +494,10 @@
     <font/>
     <font>
       <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
   </fonts>
@@ -505,7 +515,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -514,6 +524,9 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1351,6 +1364,14 @@
         <v>153</v>
       </c>
     </row>
+    <row r="78">
+      <c r="A78" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/src/TestOkur.WebApi/Application/Localization/tr.xlsx
+++ b/src/TestOkur.WebApi/Application/Localization/tr.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="160">
   <si>
     <t>Ad</t>
   </si>
@@ -479,6 +479,18 @@
   </si>
   <si>
     <t>Tum formlar tarandi</t>
+  </si>
+  <si>
+    <t>MigrationQuestionPrompt</t>
+  </si>
+  <si>
+    <t>Eski uygulamadaki öğrenci verilerinizi giriş ekranındakı 'Eski Sistem Verilerini Aktar' butonunu kullanabilirsiniz.</t>
+  </si>
+  <si>
+    <t>UserExpired</t>
+  </si>
+  <si>
+    <t>Kullanıcı hesabınızın süresi dolmuştur. TestOkur'u kullanmaya devam etmek için  web sitemizden lisans yenileme işlemi yapmalısınız</t>
   </si>
 </sst>
 </file>
@@ -745,7 +757,7 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="34.43"/>
-    <col customWidth="1" min="2" max="2" width="83.0"/>
+    <col customWidth="1" min="2" max="2" width="116.0"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1372,6 +1384,22 @@
         <v>155</v>
       </c>
     </row>
+    <row r="79">
+      <c r="A79" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/src/TestOkur.WebApi/Application/Localization/tr.xlsx
+++ b/src/TestOkur.WebApi/Application/Localization/tr.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="162">
   <si>
     <t>Ad</t>
   </si>
@@ -491,6 +491,12 @@
   </si>
   <si>
     <t>Kullanıcı hesabınızın süresi dolmuştur. TestOkur'u kullanmaya devam etmek için  web sitemizden lisans yenileme işlemi yapmalısınız</t>
+  </si>
+  <si>
+    <t>UserNotActive</t>
+  </si>
+  <si>
+    <t>Kullanıcı hesabınız aktif değildir. Lütfen TestOkur yetkilileri ile görüşünüz</t>
   </si>
 </sst>
 </file>
@@ -1400,6 +1406,14 @@
         <v>159</v>
       </c>
     </row>
+    <row r="81">
+      <c r="A81" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/src/TestOkur.WebApi/Application/Localization/tr.xlsx
+++ b/src/TestOkur.WebApi/Application/Localization/tr.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="166">
   <si>
     <t>Ad</t>
   </si>
@@ -497,6 +497,18 @@
   </si>
   <si>
     <t>Kullanıcı hesabınız aktif değildir. Lütfen TestOkur yetkilileri ile görüşünüz</t>
+  </si>
+  <si>
+    <t>SelectLessonToViewSubjects</t>
+  </si>
+  <si>
+    <t>Konularini gormek istediginiz dersi seciniz</t>
+  </si>
+  <si>
+    <t>SelectLessonToViewUnits</t>
+  </si>
+  <si>
+    <t>Uniteleri gormek istediginiz dersi seciniz</t>
   </si>
 </sst>
 </file>
@@ -1414,6 +1426,22 @@
         <v>161</v>
       </c>
     </row>
+    <row r="82">
+      <c r="A82" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/src/TestOkur.WebApi/Application/Localization/tr.xlsx
+++ b/src/TestOkur.WebApi/Application/Localization/tr.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="168">
   <si>
     <t>Ad</t>
   </si>
@@ -509,6 +509,12 @@
   </si>
   <si>
     <t>Uniteleri gormek istediginiz dersi seciniz</t>
+  </si>
+  <si>
+    <t>Warning</t>
+  </si>
+  <si>
+    <t>Uyari</t>
   </si>
 </sst>
 </file>
@@ -1442,6 +1448,14 @@
         <v>165</v>
       </c>
     </row>
+    <row r="84">
+      <c r="A84" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/src/TestOkur.WebApi/Application/Localization/tr.xlsx
+++ b/src/TestOkur.WebApi/Application/Localization/tr.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="170">
   <si>
     <t>Ad</t>
   </si>
@@ -515,6 +515,12 @@
   </si>
   <si>
     <t>Uyari</t>
+  </si>
+  <si>
+    <t>MaxAllowedDeviceExceeded</t>
+  </si>
+  <si>
+    <t>TestOkur’u sadece kayıtlı olan bilgisayarınızda kullanabilirsiniz. Daha fazla bilgisayarda kullanabilmek için yeni lisans satın almanız gerekmektedir</t>
   </si>
 </sst>
 </file>
@@ -1456,6 +1462,14 @@
         <v>167</v>
       </c>
     </row>
+    <row r="85">
+      <c r="A85" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/src/TestOkur.WebApi/Application/Localization/tr.xlsx
+++ b/src/TestOkur.WebApi/Application/Localization/tr.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="172">
   <si>
     <t>Ad</t>
   </si>
@@ -521,6 +521,12 @@
   </si>
   <si>
     <t>TestOkur’u sadece kayıtlı olan bilgisayarınızda kullanabilirsiniz. Daha fazla bilgisayarda kullanabilmek için yeni lisans satın almanız gerekmektedir</t>
+  </si>
+  <si>
+    <t>AbsenceLoginInfo</t>
+  </si>
+  <si>
+    <t>Devamsizlik SMS gonderimi icin e-okul oturumunuzu acmaniz gerekmektedir.</t>
   </si>
 </sst>
 </file>
@@ -1470,6 +1476,14 @@
         <v>169</v>
       </c>
     </row>
+    <row r="86">
+      <c r="A86" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/src/TestOkur.WebApi/Application/Localization/tr.xlsx
+++ b/src/TestOkur.WebApi/Application/Localization/tr.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="174">
   <si>
     <t>Ad</t>
   </si>
@@ -527,6 +527,12 @@
   </si>
   <si>
     <t>Devamsizlik SMS gonderimi icin e-okul oturumunuzu acmaniz gerekmektedir.</t>
+  </si>
+  <si>
+    <t>MigrationInfoMessage</t>
+  </si>
+  <si>
+    <t>Sadece sinif ve ogrenci bilgileri aktarilacaktir. Eski  sinav ve optik formlar yeni sistemle uyumlu olmadigi icin bunlar aktarilmayacaktir.</t>
   </si>
 </sst>
 </file>
@@ -1484,6 +1490,14 @@
         <v>171</v>
       </c>
     </row>
+    <row r="87">
+      <c r="A87" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/src/TestOkur.WebApi/Application/Localization/tr.xlsx
+++ b/src/TestOkur.WebApi/Application/Localization/tr.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="176">
   <si>
     <t>Ad</t>
   </si>
@@ -533,6 +533,12 @@
   </si>
   <si>
     <t>Sadece sinif ve ogrenci bilgileri aktarilacaktir. Eski  sinav ve optik formlar yeni sistemle uyumlu olmadigi icin bunlar aktarilmayacaktir.</t>
+  </si>
+  <si>
+    <t>ESchoolLoginWarning</t>
+  </si>
+  <si>
+    <t>E-Okul'dan veri cekilmesi esnasinda kullandiginiz kullanici bilgieri ile baska bir yerde oturum acmamaniz gerekmektedir. Oturum acildigi takdir de  uygulamadaki  veri aktarimi kesilecektir ve islem devam etmeyecektir.</t>
   </si>
 </sst>
 </file>
@@ -1498,6 +1504,14 @@
         <v>173</v>
       </c>
     </row>
+    <row r="88">
+      <c r="A88" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/src/TestOkur.WebApi/Application/Localization/tr.xlsx
+++ b/src/TestOkur.WebApi/Application/Localization/tr.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="178">
   <si>
     <t>Ad</t>
   </si>
@@ -539,6 +539,12 @@
   </si>
   <si>
     <t>E-Okul'dan veri cekilmesi esnasinda kullandiginiz kullanici bilgieri ile baska bir yerde oturum acmamaniz gerekmektedir. Oturum acildigi takdir de  uygulamadaki  veri aktarimi kesilecektir ve islem devam etmeyecektir.</t>
+  </si>
+  <si>
+    <t>NoStudentsForPrintingForms</t>
+  </si>
+  <si>
+    <t>Optik form yazdirmak istediginz sinif(lar)da  ogrenci bulunamadi.</t>
   </si>
 </sst>
 </file>
@@ -1512,6 +1518,14 @@
         <v>175</v>
       </c>
     </row>
+    <row r="89">
+      <c r="A89" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/src/TestOkur.WebApi/Application/Localization/tr.xlsx
+++ b/src/TestOkur.WebApi/Application/Localization/tr.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="180">
   <si>
     <t>Ad</t>
   </si>
@@ -545,6 +545,12 @@
   </si>
   <si>
     <t>Optik form yazdirmak istediginz sinif(lar)da  ogrenci bulunamadi.</t>
+  </si>
+  <si>
+    <t>PasswordResetUserNotFound</t>
+  </si>
+  <si>
+    <t>Bu e-posta adresine ait kullanici kaydi bulunmamistir. Lutfen e-posta adresinizin dogru oldugundan emin olunuz.</t>
   </si>
 </sst>
 </file>
@@ -1526,6 +1532,14 @@
         <v>177</v>
       </c>
     </row>
+    <row r="90">
+      <c r="A90" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/src/TestOkur.WebApi/Application/Localization/tr.xlsx
+++ b/src/TestOkur.WebApi/Application/Localization/tr.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="182">
   <si>
     <t>Ad</t>
   </si>
@@ -551,6 +551,12 @@
   </si>
   <si>
     <t>Bu e-posta adresine ait kullanici kaydi bulunmamistir. Lutfen e-posta adresinizin dogru oldugundan emin olunuz.</t>
+  </si>
+  <si>
+    <t>InsufficientFunds</t>
+  </si>
+  <si>
+    <t>SMS bakiyeniz yetersizdir.</t>
   </si>
 </sst>
 </file>
@@ -1540,6 +1546,14 @@
         <v>179</v>
       </c>
     </row>
+    <row r="91">
+      <c r="A91" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/src/TestOkur.WebApi/Application/Localization/tr.xlsx
+++ b/src/TestOkur.WebApi/Application/Localization/tr.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="184">
   <si>
     <t>Ad</t>
   </si>
@@ -557,6 +557,12 @@
   </si>
   <si>
     <t>SMS bakiyeniz yetersizdir.</t>
+  </si>
+  <si>
+    <t>PleaseNarrowDownFilters</t>
+  </si>
+  <si>
+    <t>Sectiginiz filtre degerlerinde 1000'den fazla SMS kaydi bulunmaktadir. Lutfen filtre degerlerini daraltip tekrar deneyiniz.</t>
   </si>
 </sst>
 </file>
@@ -1554,6 +1560,14 @@
         <v>181</v>
       </c>
     </row>
+    <row r="92">
+      <c r="A92" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/src/TestOkur.WebApi/Application/Localization/tr.xlsx
+++ b/src/TestOkur.WebApi/Application/Localization/tr.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="188">
   <si>
     <t>Ad</t>
   </si>
@@ -563,6 +563,18 @@
   </si>
   <si>
     <t>Sectiginiz filtre degerlerinde 1000'den fazla SMS kaydi bulunmaktadir. Lutfen filtre degerlerini daraltip tekrar deneyiniz.</t>
+  </si>
+  <si>
+    <t>PleaseEnterMessage</t>
+  </si>
+  <si>
+    <t>Lutfen gonderilecek mesaji giriniz</t>
+  </si>
+  <si>
+    <t>PleaseEnterSmsCellPhoneNumbers</t>
+  </si>
+  <si>
+    <t>Lutfen mesaj gonderilecek olan telefon numaralarini giriniz.</t>
   </si>
 </sst>
 </file>
@@ -1568,6 +1580,22 @@
         <v>183</v>
       </c>
     </row>
+    <row r="93">
+      <c r="A93" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/src/TestOkur.WebApi/Application/Localization/tr.xlsx
+++ b/src/TestOkur.WebApi/Application/Localization/tr.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="192">
   <si>
     <t>Ad</t>
   </si>
@@ -575,6 +575,18 @@
   </si>
   <si>
     <t>Lutfen mesaj gonderilecek olan telefon numaralarini giriniz.</t>
+  </si>
+  <si>
+    <t>Lutfen E-Posta Giriniz</t>
+  </si>
+  <si>
+    <t>Lutfen Parola Giriniz</t>
+  </si>
+  <si>
+    <t>invalid_grant</t>
+  </si>
+  <si>
+    <t>Gecersiz kullanici adi veya parola</t>
   </si>
 </sst>
 </file>
@@ -1596,6 +1608,30 @@
         <v>187</v>
       </c>
     </row>
+    <row r="95">
+      <c r="A95" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/src/TestOkur.WebApi/Application/Localization/tr.xlsx
+++ b/src/TestOkur.WebApi/Application/Localization/tr.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="191">
   <si>
     <t>Ad</t>
   </si>
@@ -121,463 +121,460 @@
     <t>E-posta adresi boş geçilemez.</t>
   </si>
   <si>
+    <t>ClassCreated</t>
+  </si>
+  <si>
+    <t>Sınıf Kaydedildi.</t>
+  </si>
+  <si>
+    <t>ConfirmDelete</t>
+  </si>
+  <si>
+    <t>Bu kaydı silmek istediğinize emin misiniz?</t>
+  </si>
+  <si>
+    <t>Error</t>
+  </si>
+  <si>
+    <t>Hata</t>
+  </si>
+  <si>
+    <t>Information</t>
+  </si>
+  <si>
+    <t>Bilgi</t>
+  </si>
+  <si>
+    <t>UnexpectedSystemError</t>
+  </si>
+  <si>
+    <t>Beklenmedik bir sistem hatasi olustu.Lutfen TestOkur yetkililerine bildiriniz.</t>
+  </si>
+  <si>
+    <t>Confirmation</t>
+  </si>
+  <si>
+    <t>Onay</t>
+  </si>
+  <si>
+    <t>LessonExists</t>
+  </si>
+  <si>
+    <t>Bu isimde ders kaydı zaten bulunmakta.</t>
+  </si>
+  <si>
+    <t>SelectUnitToEdit</t>
+  </si>
+  <si>
+    <t>Güncellenecek üniteyi seçiniz.</t>
+  </si>
+  <si>
+    <t>SelectUnitToDelete</t>
+  </si>
+  <si>
+    <t>Silinecek üniteyi seçiniz.</t>
+  </si>
+  <si>
+    <t>UnitCannotBeEmpty</t>
+  </si>
+  <si>
+    <t>Ünite adı boş geçilemez</t>
+  </si>
+  <si>
+    <t>UserUpdated</t>
+  </si>
+  <si>
+    <t>Bilgileriniz güncellendi.</t>
+  </si>
+  <si>
+    <t>UpdateLesson</t>
+  </si>
+  <si>
+    <t>Ders Güncelleme</t>
+  </si>
+  <si>
+    <t>UnitExists</t>
+  </si>
+  <si>
+    <t>Bu isimde unite kaydı zaten bulunmakta.</t>
+  </si>
+  <si>
+    <t>LessonnameCannotBeEmpty</t>
+  </si>
+  <si>
+    <t>Ders adı boş geçilemez.</t>
+  </si>
+  <si>
+    <t>SelectSubjectToEdit</t>
+  </si>
+  <si>
+    <t>Düzenlenecek konuyu seçiniz.</t>
+  </si>
+  <si>
+    <t>Save</t>
+  </si>
+  <si>
+    <t>Kaydet</t>
+  </si>
+  <si>
+    <t>SelectSubjectToDelete</t>
+  </si>
+  <si>
+    <t>Silinecek konuyu seçiniz.</t>
+  </si>
+  <si>
+    <t>SubjectCannotBeEmpty</t>
+  </si>
+  <si>
+    <t>Konu adi boş geçilemez.</t>
+  </si>
+  <si>
+    <t>EnterCriteria</t>
+  </si>
+  <si>
+    <t>Lutfen bir kriter giriniz.</t>
+  </si>
+  <si>
+    <t>StudentUpdate</t>
+  </si>
+  <si>
+    <t>ÖĞRENCİ GÜNCELLEME</t>
+  </si>
+  <si>
+    <t>ReadingStudentParentPhoneInfoMessage</t>
+  </si>
+  <si>
+    <t>Öğrenci veli telefon bilgileri okunuyor.</t>
+  </si>
+  <si>
+    <t>ReadingBranchInfoMessage</t>
+  </si>
+  <si>
+    <t>Şube bilgileri okunuyor....</t>
+  </si>
+  <si>
+    <t>ReadingClasslevelInfoMessage</t>
+  </si>
+  <si>
+    <t>Sınıf bilgileri okunuyor....</t>
+  </si>
+  <si>
+    <t>ReadingStudentInfoMessage</t>
+  </si>
+  <si>
+    <t>Öğrenci bilgileri okunuyor....</t>
+  </si>
+  <si>
+    <t>StudentInfoReadMessage</t>
+  </si>
+  <si>
+    <t>Öğrenci bilgileri okundu....</t>
+  </si>
+  <si>
+    <t>SelectRowToBeDeleted</t>
+  </si>
+  <si>
+    <t>Silme işlemini gerçekleştirmek için tanımlı bir satır seçmeniz gerekmektedir.</t>
+  </si>
+  <si>
+    <t>StudentsImported</t>
+  </si>
+  <si>
+    <t>Öğrenciler aktarıldı.</t>
+  </si>
+  <si>
+    <t>SelectStudentToDelete</t>
+  </si>
+  <si>
+    <t>Silinecek ogrenciyi seciniz</t>
+  </si>
+  <si>
+    <t>SelectExamToDelete</t>
+  </si>
+  <si>
+    <t>Silinecek sinavi seciniz</t>
+  </si>
+  <si>
+    <t>SelectRecordToBeDeleted</t>
+  </si>
+  <si>
+    <t>Lütfen silmek istediğiniz kaydı seçin.</t>
+  </si>
+  <si>
+    <t>ClassroomExists</t>
+  </si>
+  <si>
+    <t>Bu sınıf kaydı zaten bulunmakta.</t>
+  </si>
+  <si>
+    <t>ScoreFormulasUpdated</t>
+  </si>
+  <si>
+    <t>Katsayilar guncellendi.</t>
+  </si>
+  <si>
+    <t>ChooseClassroomToDelete</t>
+  </si>
+  <si>
+    <t>Silinecek sinifi seciniz</t>
+  </si>
+  <si>
+    <t>ChooseClassroomToProceed</t>
+  </si>
+  <si>
+    <t>Once sinif seciniz</t>
+  </si>
+  <si>
+    <t>ClassroomHasNoStudents</t>
+  </si>
+  <si>
+    <t>Bu sinifta ogrenci bulunmamaktadir.</t>
+  </si>
+  <si>
+    <t>StudentExists</t>
+  </si>
+  <si>
+    <t>Bu ogrenci numarasi zaten mevcut</t>
+  </si>
+  <si>
+    <t>ExamExists</t>
+  </si>
+  <si>
+    <t>Bu isimde sinav zaten mevcut</t>
+  </si>
+  <si>
+    <t>ScanResultsSaved</t>
+  </si>
+  <si>
+    <t>Taranan formlar kaydedildi</t>
+  </si>
+  <si>
+    <t>Directory</t>
+  </si>
+  <si>
+    <t>Diğer</t>
+  </si>
+  <si>
+    <t>Mother</t>
+  </si>
+  <si>
+    <t>Veli (Anne)</t>
+  </si>
+  <si>
+    <t>Father</t>
+  </si>
+  <si>
+    <t>Veli (Baba)</t>
+  </si>
+  <si>
+    <t>PasswordsDoNotMatch</t>
+  </si>
+  <si>
+    <t>Parola ve tekrar parola uyuşmuyor.</t>
+  </si>
+  <si>
+    <t>PasswordChanged</t>
+  </si>
+  <si>
+    <t>Parolaniz basariyla degistirildi.</t>
+  </si>
+  <si>
+    <t>ForgotPasswordLinkSentInfo</t>
+  </si>
+  <si>
+    <t>Parolanizi sifirlamak icin e-posta adresinize baglanti gonderilmistir</t>
+  </si>
+  <si>
+    <t>BackToDefaultDefaultScoreFormulaConfirmation</t>
+  </si>
+  <si>
+    <t>Varsayilan katsayilara donulecektir. Onayliyor musunuz?</t>
+  </si>
+  <si>
+    <t>PleaseChooseFormType</t>
+  </si>
+  <si>
+    <t>Lutfen optik form tipini seciniz</t>
+  </si>
+  <si>
+    <t>SmsSentSuccess</t>
+  </si>
+  <si>
+    <t>SMS basariyla gonderildi</t>
+  </si>
+  <si>
+    <t>ConfirmDeleteClassroom</t>
+  </si>
+  <si>
+    <t>Secmis oldugunuz sinif kaydi, sinifa kayitli ogrencilerle birlikte silinecektir onayliyor musunuz?</t>
+  </si>
+  <si>
+    <t>CheckInternetConnection</t>
+  </si>
+  <si>
+    <t>TestOkur sunucusuna erisim saglanamadi.Internet baglantinizi kontrol ediniz.</t>
+  </si>
+  <si>
+    <t>BookletNotMarked</t>
+  </si>
+  <si>
+    <t>Ogrenci kitapcigi isaretli degil veya bu kitapcik sinavda tanimli degil.Lutfen kontrol ediniz</t>
+  </si>
+  <si>
+    <t>AnswerKeyBookletNotMarked</t>
+  </si>
+  <si>
+    <t>Kitapcik turu isaretli degil.Lutfen kitapcik turunu isaretleyiniz.</t>
+  </si>
+  <si>
+    <t>OpticalFormNotFound</t>
+  </si>
+  <si>
+    <t>Secilen sinava ve filtre degerlerine uyan optik form kaydi bulunamadi</t>
+  </si>
+  <si>
+    <t>ConfirmDeleteStudentForm</t>
+  </si>
+  <si>
+    <t>Secilen optik form sonucunu silmek istediginize emin misiniz?</t>
+  </si>
+  <si>
+    <t>ErrorSubmitted</t>
+  </si>
+  <si>
+    <t>Mesajiniz iletildi. 24 saat icinde size geri donus yapilacaktir.</t>
+  </si>
+  <si>
+    <t>FileSizeTooBig</t>
+  </si>
+  <si>
+    <t>Ekran goruntusu dosya boyutu 2 MB'dan buyuk olamaz</t>
+  </si>
+  <si>
+    <t>SelectStudentFirst</t>
+  </si>
+  <si>
+    <t>Raporunu almak istediginiz ogrenciyi seciniz</t>
+  </si>
+  <si>
+    <t>ExamNameCannotBeEmpty</t>
+  </si>
+  <si>
+    <t>Lutfen sinav adini giriniz</t>
+  </si>
+  <si>
+    <t>PleaseEnterAnswerkeyForm</t>
+  </si>
+  <si>
+    <t>Lutfen cevap anahtarini giriniz</t>
+  </si>
+  <si>
+    <t>AllFormsScanned</t>
+  </si>
+  <si>
+    <t>Tum formlar tarandi</t>
+  </si>
+  <si>
+    <t>MigrationQuestionPrompt</t>
+  </si>
+  <si>
+    <t>Eski uygulamadaki öğrenci verilerinizi giriş ekranındakı 'Eski Sistem Verilerini Aktar' butonunu kullanabilirsiniz.</t>
+  </si>
+  <si>
+    <t>UserExpired</t>
+  </si>
+  <si>
+    <t>Kullanıcı hesabınızın süresi dolmuştur. TestOkur'u kullanmaya devam etmek için  web sitemizden lisans yenileme işlemi yapmalısınız</t>
+  </si>
+  <si>
+    <t>UserNotActive</t>
+  </si>
+  <si>
+    <t>Kullanıcı hesabınız aktif değildir. Lütfen TestOkur yetkilileri ile görüşünüz</t>
+  </si>
+  <si>
+    <t>SelectLessonToViewSubjects</t>
+  </si>
+  <si>
+    <t>Konularini gormek istediginiz dersi seciniz</t>
+  </si>
+  <si>
+    <t>SelectLessonToViewUnits</t>
+  </si>
+  <si>
+    <t>Uniteleri gormek istediginiz dersi seciniz</t>
+  </si>
+  <si>
+    <t>Warning</t>
+  </si>
+  <si>
+    <t>Uyari</t>
+  </si>
+  <si>
+    <t>MaxAllowedDeviceExceeded</t>
+  </si>
+  <si>
+    <t>TestOkur’u sadece kayıtlı olan bilgisayarınızda kullanabilirsiniz. Daha fazla bilgisayarda kullanabilmek için yeni lisans satın almanız gerekmektedir</t>
+  </si>
+  <si>
+    <t>AbsenceLoginInfo</t>
+  </si>
+  <si>
+    <t>Devamsizlik SMS gonderimi icin e-okul oturumunuzu acmaniz gerekmektedir.</t>
+  </si>
+  <si>
+    <t>MigrationInfoMessage</t>
+  </si>
+  <si>
+    <t>Sadece sinif ve ogrenci bilgileri aktarilacaktir. Eski  sinav ve optik formlar yeni sistemle uyumlu olmadigi icin bunlar aktarilmayacaktir.</t>
+  </si>
+  <si>
+    <t>ESchoolLoginWarning</t>
+  </si>
+  <si>
+    <t>E-Okul'dan veri cekilmesi esnasinda kullandiginiz kullanici bilgieri ile baska bir yerde oturum acmamaniz gerekmektedir. Oturum acildigi takdir de  uygulamadaki  veri aktarimi kesilecektir ve islem devam etmeyecektir.</t>
+  </si>
+  <si>
+    <t>NoStudentsForPrintingForms</t>
+  </si>
+  <si>
+    <t>Optik form yazdirmak istediginz sinif(lar)da  ogrenci bulunamadi.</t>
+  </si>
+  <si>
+    <t>PasswordResetUserNotFound</t>
+  </si>
+  <si>
+    <t>Bu e-posta adresine ait kullanici kaydi bulunmamistir. Lutfen e-posta adresinizin dogru oldugundan emin olunuz.</t>
+  </si>
+  <si>
+    <t>InsufficientFunds</t>
+  </si>
+  <si>
+    <t>SMS bakiyeniz yetersizdir.</t>
+  </si>
+  <si>
+    <t>PleaseNarrowDownFilters</t>
+  </si>
+  <si>
+    <t>Sectiginiz filtre degerlerinde 1000'den fazla SMS kaydi bulunmaktadir. Lutfen filtre degerlerini daraltip tekrar deneyiniz.</t>
+  </si>
+  <si>
+    <t>PleaseEnterMessage</t>
+  </si>
+  <si>
+    <t>Lutfen gonderilecek mesaji giriniz</t>
+  </si>
+  <si>
+    <t>PleaseEnterSmsCellPhoneNumbers</t>
+  </si>
+  <si>
+    <t>Lutfen mesaj gonderilecek olan telefon numaralarini giriniz.</t>
+  </si>
+  <si>
+    <t>Lutfen E-Posta Giriniz</t>
+  </si>
+  <si>
     <t>PasswordCannotBeEmpty</t>
-  </si>
-  <si>
-    <t>Parola boş geçilemez.</t>
-  </si>
-  <si>
-    <t>ClassCreated</t>
-  </si>
-  <si>
-    <t>Sınıf Kaydedildi.</t>
-  </si>
-  <si>
-    <t>ConfirmDelete</t>
-  </si>
-  <si>
-    <t>Bu kaydı silmek istediğinize emin misiniz?</t>
-  </si>
-  <si>
-    <t>Error</t>
-  </si>
-  <si>
-    <t>Hata</t>
-  </si>
-  <si>
-    <t>Information</t>
-  </si>
-  <si>
-    <t>Bilgi</t>
-  </si>
-  <si>
-    <t>UnexpectedSystemError</t>
-  </si>
-  <si>
-    <t>Beklenmedik bir sistem hatasi olustu.Lutfen TestOkur yetkililerine bildiriniz.</t>
-  </si>
-  <si>
-    <t>Confirmation</t>
-  </si>
-  <si>
-    <t>Onay</t>
-  </si>
-  <si>
-    <t>LessonExists</t>
-  </si>
-  <si>
-    <t>Bu isimde ders kaydı zaten bulunmakta.</t>
-  </si>
-  <si>
-    <t>SelectUnitToEdit</t>
-  </si>
-  <si>
-    <t>Güncellenecek üniteyi seçiniz.</t>
-  </si>
-  <si>
-    <t>SelectUnitToDelete</t>
-  </si>
-  <si>
-    <t>Silinecek üniteyi seçiniz.</t>
-  </si>
-  <si>
-    <t>UnitCannotBeEmpty</t>
-  </si>
-  <si>
-    <t>Ünite adı boş geçilemez</t>
-  </si>
-  <si>
-    <t>UserUpdated</t>
-  </si>
-  <si>
-    <t>Bilgileriniz güncellendi.</t>
-  </si>
-  <si>
-    <t>UpdateLesson</t>
-  </si>
-  <si>
-    <t>Ders Güncelleme</t>
-  </si>
-  <si>
-    <t>UnitExists</t>
-  </si>
-  <si>
-    <t>Bu isimde unite kaydı zaten bulunmakta.</t>
-  </si>
-  <si>
-    <t>LessonnameCannotBeEmpty</t>
-  </si>
-  <si>
-    <t>Ders adı boş geçilemez.</t>
-  </si>
-  <si>
-    <t>SelectSubjectToEdit</t>
-  </si>
-  <si>
-    <t>Düzenlenecek konuyu seçiniz.</t>
-  </si>
-  <si>
-    <t>Save</t>
-  </si>
-  <si>
-    <t>Kaydet</t>
-  </si>
-  <si>
-    <t>SelectSubjectToDelete</t>
-  </si>
-  <si>
-    <t>Silinecek konuyu seçiniz.</t>
-  </si>
-  <si>
-    <t>SubjectCannotBeEmpty</t>
-  </si>
-  <si>
-    <t>Konu adi boş geçilemez.</t>
-  </si>
-  <si>
-    <t>EnterCriteria</t>
-  </si>
-  <si>
-    <t>Lutfen bir kriter giriniz.</t>
-  </si>
-  <si>
-    <t>StudentUpdate</t>
-  </si>
-  <si>
-    <t>ÖĞRENCİ GÜNCELLEME</t>
-  </si>
-  <si>
-    <t>ReadingStudentParentPhoneInfoMessage</t>
-  </si>
-  <si>
-    <t>Öğrenci veli telefon bilgileri okunuyor.</t>
-  </si>
-  <si>
-    <t>ReadingBranchInfoMessage</t>
-  </si>
-  <si>
-    <t>Şube bilgileri okunuyor....</t>
-  </si>
-  <si>
-    <t>ReadingClasslevelInfoMessage</t>
-  </si>
-  <si>
-    <t>Sınıf bilgileri okunuyor....</t>
-  </si>
-  <si>
-    <t>ReadingStudentInfoMessage</t>
-  </si>
-  <si>
-    <t>Öğrenci bilgileri okunuyor....</t>
-  </si>
-  <si>
-    <t>StudentInfoReadMessage</t>
-  </si>
-  <si>
-    <t>Öğrenci bilgileri okundu....</t>
-  </si>
-  <si>
-    <t>SelectRowToBeDeleted</t>
-  </si>
-  <si>
-    <t>Silme işlemini gerçekleştirmek için tanımlı bir satır seçmeniz gerekmektedir.</t>
-  </si>
-  <si>
-    <t>StudentsImported</t>
-  </si>
-  <si>
-    <t>Öğrenciler aktarıldı.</t>
-  </si>
-  <si>
-    <t>SelectStudentToDelete</t>
-  </si>
-  <si>
-    <t>Silinecek ogrenciyi seciniz</t>
-  </si>
-  <si>
-    <t>SelectExamToDelete</t>
-  </si>
-  <si>
-    <t>Silinecek sinavi seciniz</t>
-  </si>
-  <si>
-    <t>SelectRecordToBeDeleted</t>
-  </si>
-  <si>
-    <t>Lütfen silmek istediğiniz kaydı seçin.</t>
-  </si>
-  <si>
-    <t>ClassroomExists</t>
-  </si>
-  <si>
-    <t>Bu sınıf kaydı zaten bulunmakta.</t>
-  </si>
-  <si>
-    <t>ScoreFormulasUpdated</t>
-  </si>
-  <si>
-    <t>Katsayilar guncellendi.</t>
-  </si>
-  <si>
-    <t>ChooseClassroomToDelete</t>
-  </si>
-  <si>
-    <t>Silinecek sinifi seciniz</t>
-  </si>
-  <si>
-    <t>ChooseClassroomToProceed</t>
-  </si>
-  <si>
-    <t>Once sinif seciniz</t>
-  </si>
-  <si>
-    <t>ClassroomHasNoStudents</t>
-  </si>
-  <si>
-    <t>Bu sinifta ogrenci bulunmamaktadir.</t>
-  </si>
-  <si>
-    <t>StudentExists</t>
-  </si>
-  <si>
-    <t>Bu ogrenci numarasi zaten mevcut</t>
-  </si>
-  <si>
-    <t>ExamExists</t>
-  </si>
-  <si>
-    <t>Bu isimde sinav zaten mevcut</t>
-  </si>
-  <si>
-    <t>ScanResultsSaved</t>
-  </si>
-  <si>
-    <t>Taranan formlar kaydedildi</t>
-  </si>
-  <si>
-    <t>Directory</t>
-  </si>
-  <si>
-    <t>Diğer</t>
-  </si>
-  <si>
-    <t>Mother</t>
-  </si>
-  <si>
-    <t>Veli (Anne)</t>
-  </si>
-  <si>
-    <t>Father</t>
-  </si>
-  <si>
-    <t>Veli (Baba)</t>
-  </si>
-  <si>
-    <t>PasswordsDoNotMatch</t>
-  </si>
-  <si>
-    <t>Parola ve tekrar parola uyuşmuyor.</t>
-  </si>
-  <si>
-    <t>PasswordChanged</t>
-  </si>
-  <si>
-    <t>Parolaniz basariyla degistirildi.</t>
-  </si>
-  <si>
-    <t>ForgotPasswordLinkSentInfo</t>
-  </si>
-  <si>
-    <t>Parolanizi sifirlamak icin e-posta adresinize baglanti gonderilmistir</t>
-  </si>
-  <si>
-    <t>BackToDefaultDefaultScoreFormulaConfirmation</t>
-  </si>
-  <si>
-    <t>Varsayilan katsayilara donulecektir. Onayliyor musunuz?</t>
-  </si>
-  <si>
-    <t>PleaseChooseFormType</t>
-  </si>
-  <si>
-    <t>Lutfen optik form tipini seciniz</t>
-  </si>
-  <si>
-    <t>SmsSentSuccess</t>
-  </si>
-  <si>
-    <t>SMS basariyla gonderildi</t>
-  </si>
-  <si>
-    <t>ConfirmDeleteClassroom</t>
-  </si>
-  <si>
-    <t>Secmis oldugunuz sinif kaydi, sinifa kayitli ogrencilerle birlikte silinecektir onayliyor musunuz?</t>
-  </si>
-  <si>
-    <t>CheckInternetConnection</t>
-  </si>
-  <si>
-    <t>TestOkur sunucusuna erisim saglanamadi.Internet baglantinizi kontrol ediniz.</t>
-  </si>
-  <si>
-    <t>BookletNotMarked</t>
-  </si>
-  <si>
-    <t>Ogrenci kitapcigi isaretli degil veya bu kitapcik sinavda tanimli degil.Lutfen kontrol ediniz</t>
-  </si>
-  <si>
-    <t>AnswerKeyBookletNotMarked</t>
-  </si>
-  <si>
-    <t>Kitapcik turu isaretli degil.Lutfen kitapcik turunu isaretleyiniz.</t>
-  </si>
-  <si>
-    <t>OpticalFormNotFound</t>
-  </si>
-  <si>
-    <t>Secilen sinava ve filtre degerlerine uyan optik form kaydi bulunamadi</t>
-  </si>
-  <si>
-    <t>ConfirmDeleteStudentForm</t>
-  </si>
-  <si>
-    <t>Secilen optik form sonucunu silmek istediginize emin misiniz?</t>
-  </si>
-  <si>
-    <t>ErrorSubmitted</t>
-  </si>
-  <si>
-    <t>Mesajiniz iletildi. 24 saat icinde size geri donus yapilacaktir.</t>
-  </si>
-  <si>
-    <t>FileSizeTooBig</t>
-  </si>
-  <si>
-    <t>Ekran goruntusu dosya boyutu 2 MB'dan buyuk olamaz</t>
-  </si>
-  <si>
-    <t>SelectStudentFirst</t>
-  </si>
-  <si>
-    <t>Raporunu almak istediginiz ogrenciyi seciniz</t>
-  </si>
-  <si>
-    <t>ExamNameCannotBeEmpty</t>
-  </si>
-  <si>
-    <t>Lutfen sinav adini giriniz</t>
-  </si>
-  <si>
-    <t>PleaseEnterAnswerkeyForm</t>
-  </si>
-  <si>
-    <t>Lutfen cevap anahtarini giriniz</t>
-  </si>
-  <si>
-    <t>AllFormsScanned</t>
-  </si>
-  <si>
-    <t>Tum formlar tarandi</t>
-  </si>
-  <si>
-    <t>MigrationQuestionPrompt</t>
-  </si>
-  <si>
-    <t>Eski uygulamadaki öğrenci verilerinizi giriş ekranındakı 'Eski Sistem Verilerini Aktar' butonunu kullanabilirsiniz.</t>
-  </si>
-  <si>
-    <t>UserExpired</t>
-  </si>
-  <si>
-    <t>Kullanıcı hesabınızın süresi dolmuştur. TestOkur'u kullanmaya devam etmek için  web sitemizden lisans yenileme işlemi yapmalısınız</t>
-  </si>
-  <si>
-    <t>UserNotActive</t>
-  </si>
-  <si>
-    <t>Kullanıcı hesabınız aktif değildir. Lütfen TestOkur yetkilileri ile görüşünüz</t>
-  </si>
-  <si>
-    <t>SelectLessonToViewSubjects</t>
-  </si>
-  <si>
-    <t>Konularini gormek istediginiz dersi seciniz</t>
-  </si>
-  <si>
-    <t>SelectLessonToViewUnits</t>
-  </si>
-  <si>
-    <t>Uniteleri gormek istediginiz dersi seciniz</t>
-  </si>
-  <si>
-    <t>Warning</t>
-  </si>
-  <si>
-    <t>Uyari</t>
-  </si>
-  <si>
-    <t>MaxAllowedDeviceExceeded</t>
-  </si>
-  <si>
-    <t>TestOkur’u sadece kayıtlı olan bilgisayarınızda kullanabilirsiniz. Daha fazla bilgisayarda kullanabilmek için yeni lisans satın almanız gerekmektedir</t>
-  </si>
-  <si>
-    <t>AbsenceLoginInfo</t>
-  </si>
-  <si>
-    <t>Devamsizlik SMS gonderimi icin e-okul oturumunuzu acmaniz gerekmektedir.</t>
-  </si>
-  <si>
-    <t>MigrationInfoMessage</t>
-  </si>
-  <si>
-    <t>Sadece sinif ve ogrenci bilgileri aktarilacaktir. Eski  sinav ve optik formlar yeni sistemle uyumlu olmadigi icin bunlar aktarilmayacaktir.</t>
-  </si>
-  <si>
-    <t>ESchoolLoginWarning</t>
-  </si>
-  <si>
-    <t>E-Okul'dan veri cekilmesi esnasinda kullandiginiz kullanici bilgieri ile baska bir yerde oturum acmamaniz gerekmektedir. Oturum acildigi takdir de  uygulamadaki  veri aktarimi kesilecektir ve islem devam etmeyecektir.</t>
-  </si>
-  <si>
-    <t>NoStudentsForPrintingForms</t>
-  </si>
-  <si>
-    <t>Optik form yazdirmak istediginz sinif(lar)da  ogrenci bulunamadi.</t>
-  </si>
-  <si>
-    <t>PasswordResetUserNotFound</t>
-  </si>
-  <si>
-    <t>Bu e-posta adresine ait kullanici kaydi bulunmamistir. Lutfen e-posta adresinizin dogru oldugundan emin olunuz.</t>
-  </si>
-  <si>
-    <t>InsufficientFunds</t>
-  </si>
-  <si>
-    <t>SMS bakiyeniz yetersizdir.</t>
-  </si>
-  <si>
-    <t>PleaseNarrowDownFilters</t>
-  </si>
-  <si>
-    <t>Sectiginiz filtre degerlerinde 1000'den fazla SMS kaydi bulunmaktadir. Lutfen filtre degerlerini daraltip tekrar deneyiniz.</t>
-  </si>
-  <si>
-    <t>PleaseEnterMessage</t>
-  </si>
-  <si>
-    <t>Lutfen gonderilecek mesaji giriniz</t>
-  </si>
-  <si>
-    <t>PleaseEnterSmsCellPhoneNumbers</t>
-  </si>
-  <si>
-    <t>Lutfen mesaj gonderilecek olan telefon numaralarini giriniz.</t>
-  </si>
-  <si>
-    <t>Lutfen E-Posta Giriniz</t>
   </si>
   <si>
     <t>Lutfen Parola Giriniz</t>
@@ -1465,18 +1462,18 @@
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="2" t="s">
+      <c r="A77" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="B77" s="2" t="s">
+      <c r="B77" s="3" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="3" t="s">
+      <c r="A78" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="B78" s="3" t="s">
+      <c r="B78" s="1" t="s">
         <v>155</v>
       </c>
     </row>
@@ -1484,7 +1481,7 @@
       <c r="A79" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="B79" s="1" t="s">
+      <c r="B79" s="2" t="s">
         <v>157</v>
       </c>
     </row>
@@ -1508,7 +1505,7 @@
       <c r="A82" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="B82" s="2" t="s">
+      <c r="B82" s="1" t="s">
         <v>163</v>
       </c>
     </row>
@@ -1516,7 +1513,7 @@
       <c r="A83" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="B83" s="1" t="s">
+      <c r="B83" s="2" t="s">
         <v>165</v>
       </c>
     </row>
@@ -1532,7 +1529,7 @@
       <c r="A85" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="B85" s="2" t="s">
+      <c r="B85" s="1" t="s">
         <v>169</v>
       </c>
     </row>
@@ -1564,23 +1561,23 @@
       <c r="A89" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="B89" s="1" t="s">
+      <c r="B89" s="2" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="90">
-      <c r="A90" s="2" t="s">
+      <c r="A90" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="B90" s="2" t="s">
+      <c r="B90" s="1" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="91">
-      <c r="A91" s="1" t="s">
+      <c r="A91" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="B91" s="1" t="s">
+      <c r="B91" s="2" t="s">
         <v>181</v>
       </c>
     </row>
@@ -1593,7 +1590,7 @@
       </c>
     </row>
     <row r="93">
-      <c r="A93" s="2" t="s">
+      <c r="A93" s="1" t="s">
         <v>184</v>
       </c>
       <c r="B93" s="2" t="s">
@@ -1602,15 +1599,15 @@
     </row>
     <row r="94">
       <c r="A94" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B94" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="B94" s="2" t="s">
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="s">
         <v>187</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" s="1" t="s">
-        <v>34</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>188</v>
@@ -1618,18 +1615,10 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>36</v>
+        <v>189</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" s="2" t="s">
         <v>190</v>
-      </c>
-      <c r="B97" s="2" t="s">
-        <v>191</v>
       </c>
     </row>
   </sheetData>

--- a/src/TestOkur.WebApi/Application/Localization/tr.xlsx
+++ b/src/TestOkur.WebApi/Application/Localization/tr.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="190">
   <si>
     <t>Ad</t>
   </si>
@@ -569,9 +569,6 @@
   </si>
   <si>
     <t>Lutfen mesaj gonderilecek olan telefon numaralarini giriniz.</t>
-  </si>
-  <si>
-    <t>Lutfen E-Posta Giriniz</t>
   </si>
   <si>
     <t>PasswordCannotBeEmpty</t>
@@ -1598,27 +1595,19 @@
       </c>
     </row>
     <row r="94">
-      <c r="A94" s="1" t="s">
-        <v>34</v>
+      <c r="A94" s="2" t="s">
+        <v>186</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" s="2" t="s">
         <v>189</v>
-      </c>
-      <c r="B96" s="2" t="s">
-        <v>190</v>
       </c>
     </row>
   </sheetData>

--- a/src/TestOkur.WebApi/Application/Localization/tr.xlsx
+++ b/src/TestOkur.WebApi/Application/Localization/tr.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="194">
   <si>
     <t>Ad</t>
   </si>
@@ -581,6 +581,18 @@
   </si>
   <si>
     <t>Gecersiz kullanici adi veya parola</t>
+  </si>
+  <si>
+    <t>YouAreNotAuthorizedToEditSharedExam</t>
+  </si>
+  <si>
+    <t>Ortak deneme sinavlari sadece  TestOkur yoneticileri tarafindan guncellenebilir.</t>
+  </si>
+  <si>
+    <t>YouAreNotAuthorizedToDeleteSharedExam</t>
+  </si>
+  <si>
+    <t>Ortak deneme sinavlari sadece  TestOkur yoneticileri tarafindan silinebilir.</t>
   </si>
 </sst>
 </file>
@@ -846,7 +858,7 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="34.43"/>
+    <col customWidth="1" min="1" max="1" width="42.29"/>
     <col customWidth="1" min="2" max="2" width="116.0"/>
   </cols>
   <sheetData>
@@ -1610,6 +1622,22 @@
         <v>189</v>
       </c>
     </row>
+    <row r="96">
+      <c r="A96" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>193</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/src/TestOkur.WebApi/Application/Localization/tr.xlsx
+++ b/src/TestOkur.WebApi/Application/Localization/tr.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="196">
   <si>
     <t>Ad</t>
   </si>
@@ -593,6 +593,12 @@
   </si>
   <si>
     <t>Ortak deneme sinavlari sadece  TestOkur yoneticileri tarafindan silinebilir.</t>
+  </si>
+  <si>
+    <t>StudentOpticalFormGradeMismatch</t>
+  </si>
+  <si>
+    <t>En son okunan optik form  ile ondan once okunan optik form farkli siniflara ait. Bu gibi durumlar raporlardaki ortalama ve siralamayi etkileyebilir.</t>
   </si>
 </sst>
 </file>
@@ -1638,6 +1644,14 @@
         <v>193</v>
       </c>
     </row>
+    <row r="98">
+      <c r="A98" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/src/TestOkur.WebApi/Application/Localization/tr.xlsx
+++ b/src/TestOkur.WebApi/Application/Localization/tr.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="198">
   <si>
     <t>Ad</t>
   </si>
@@ -599,6 +599,12 @@
   </si>
   <si>
     <t>En son okunan optik form  ile ondan once okunan optik form farkli siniflara ait. Bu gibi durumlar raporlardaki ortalama ve siralamayi etkileyebilir.</t>
+  </si>
+  <si>
+    <t>ThisReportTypeIsOnlyAvaliableForSharedExams</t>
+  </si>
+  <si>
+    <t>Bu rapor turunu sadece ortak sinavlarda alabilirsiniz</t>
   </si>
 </sst>
 </file>
@@ -611,7 +617,6 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
-    <font/>
     <font>
       <color theme="1"/>
       <name val="Arial"/>
@@ -620,6 +625,7 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
+    <font/>
   </fonts>
   <fills count="2">
     <fill>
@@ -643,10 +649,10 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+      <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
+      <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -877,615 +883,615 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="1" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="1" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="1" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="1" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="1" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="1" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="1" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="1" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="1" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="1" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="1" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="1" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="2" t="s">
+      <c r="A23" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="1" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="2" t="s">
+      <c r="A24" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="1" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="2" t="s">
+      <c r="A25" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="1" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="2" t="s">
+      <c r="A26" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="1" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="2" t="s">
+      <c r="A27" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="1" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="2" t="s">
+      <c r="A28" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="1" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="2" t="s">
+      <c r="A29" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="1" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="2" t="s">
+      <c r="A30" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B30" s="1" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="2" t="s">
+      <c r="A31" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B31" s="1" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="2" t="s">
+      <c r="A32" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B32" s="1" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="2" t="s">
+      <c r="A33" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B33" s="1" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="2" t="s">
+      <c r="A34" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B34" s="1" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="2" t="s">
+      <c r="A35" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="B35" s="1" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="2" t="s">
+      <c r="A36" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B36" s="1" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="2" t="s">
+      <c r="A37" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="B37" s="1" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="2" t="s">
+      <c r="A38" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="B38" s="1" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="2" t="s">
+      <c r="A39" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="B39" s="1" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="2" t="s">
+      <c r="A40" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="B40" s="1" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="2" t="s">
+      <c r="A41" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="B41" s="1" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="2" t="s">
+      <c r="A42" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="B42" s="1" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="2" t="s">
+      <c r="A43" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="B43" s="1" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="2" t="s">
+      <c r="A44" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="B44" s="1" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="2" t="s">
+      <c r="A45" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B45" s="2" t="s">
+      <c r="B45" s="1" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="2" t="s">
+      <c r="A46" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B46" s="2" t="s">
+      <c r="B46" s="1" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="2" t="s">
+      <c r="A47" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B47" s="2" t="s">
+      <c r="B47" s="1" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="2" t="s">
+      <c r="A48" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B48" s="2" t="s">
+      <c r="B48" s="1" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="2" t="s">
+      <c r="A49" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B49" s="2" t="s">
+      <c r="B49" s="1" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="2" t="s">
+      <c r="A50" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B50" s="2" t="s">
+      <c r="B50" s="1" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="2" t="s">
+      <c r="A51" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B51" s="2" t="s">
+      <c r="B51" s="1" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="2" t="s">
+      <c r="A52" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B52" s="2" t="s">
+      <c r="B52" s="1" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="2" t="s">
+      <c r="A53" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B53" s="2" t="s">
+      <c r="B53" s="1" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="2" t="s">
+      <c r="A54" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="B54" s="2" t="s">
+      <c r="B54" s="1" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="2" t="s">
+      <c r="A55" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B55" s="2" t="s">
+      <c r="B55" s="1" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="2" t="s">
+      <c r="A56" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="B56" s="2" t="s">
+      <c r="B56" s="1" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="2" t="s">
+      <c r="A57" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B57" s="2" t="s">
+      <c r="B57" s="1" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="2" t="s">
+      <c r="A58" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="B58" s="2" t="s">
+      <c r="B58" s="1" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="2" t="s">
+      <c r="A59" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B59" s="2" t="s">
+      <c r="B59" s="1" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="2" t="s">
+      <c r="A60" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="B60" s="2" t="s">
+      <c r="B60" s="1" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="2" t="s">
+      <c r="A61" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="B61" s="2" t="s">
+      <c r="B61" s="1" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="2" t="s">
+      <c r="A62" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="B62" s="2" t="s">
+      <c r="B62" s="1" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="2" t="s">
+      <c r="A63" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="B63" s="2" t="s">
+      <c r="B63" s="1" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="2" t="s">
+      <c r="A64" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="B64" s="2" t="s">
+      <c r="B64" s="1" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="2" t="s">
+      <c r="A65" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="B65" s="2" t="s">
+      <c r="B65" s="1" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="2" t="s">
+      <c r="A66" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="B66" s="2" t="s">
+      <c r="B66" s="1" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="2" t="s">
+      <c r="A67" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="B67" s="2" t="s">
+      <c r="B67" s="1" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="2" t="s">
+      <c r="A68" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="B68" s="2" t="s">
+      <c r="B68" s="1" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="2" t="s">
+      <c r="A69" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="B69" s="2" t="s">
+      <c r="B69" s="1" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="2" t="s">
+      <c r="A70" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B70" s="2" t="s">
+      <c r="B70" s="1" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="2" t="s">
+      <c r="A71" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="B71" s="2" t="s">
+      <c r="B71" s="1" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="2" t="s">
+      <c r="A72" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="B72" s="2" t="s">
+      <c r="B72" s="1" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="2" t="s">
+      <c r="A73" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="B73" s="2" t="s">
+      <c r="B73" s="1" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="2" t="s">
+      <c r="A74" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="B74" s="2" t="s">
+      <c r="B74" s="1" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="2" t="s">
+      <c r="A75" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="B75" s="2" t="s">
+      <c r="B75" s="1" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="2" t="s">
+      <c r="A76" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="B76" s="2" t="s">
+      <c r="B76" s="1" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="3" t="s">
+      <c r="A77" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="B77" s="3" t="s">
+      <c r="B77" s="2" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="2" t="s">
+      <c r="A78" s="1" t="s">
         <v>154</v>
       </c>
       <c r="B78" s="1" t="s">
@@ -1493,31 +1499,31 @@
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="2" t="s">
+      <c r="A79" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="B79" s="2" t="s">
+      <c r="B79" s="1" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="2" t="s">
+      <c r="A80" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="B80" s="2" t="s">
+      <c r="B80" s="1" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="2" t="s">
+      <c r="A81" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="B81" s="2" t="s">
+      <c r="B81" s="1" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="2" t="s">
+      <c r="A82" s="1" t="s">
         <v>162</v>
       </c>
       <c r="B82" s="1" t="s">
@@ -1525,23 +1531,23 @@
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="2" t="s">
+      <c r="A83" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="B83" s="2" t="s">
+      <c r="B83" s="1" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="84">
-      <c r="A84" s="2" t="s">
+      <c r="A84" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="B84" s="2" t="s">
+      <c r="B84" s="1" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="85">
-      <c r="A85" s="2" t="s">
+      <c r="A85" s="1" t="s">
         <v>168</v>
       </c>
       <c r="B85" s="1" t="s">
@@ -1549,7 +1555,7 @@
       </c>
     </row>
     <row r="86">
-      <c r="A86" s="2" t="s">
+      <c r="A86" s="1" t="s">
         <v>170</v>
       </c>
       <c r="B86" s="1" t="s">
@@ -1557,7 +1563,7 @@
       </c>
     </row>
     <row r="87">
-      <c r="A87" s="2" t="s">
+      <c r="A87" s="1" t="s">
         <v>172</v>
       </c>
       <c r="B87" s="1" t="s">
@@ -1565,7 +1571,7 @@
       </c>
     </row>
     <row r="88">
-      <c r="A88" s="2" t="s">
+      <c r="A88" s="1" t="s">
         <v>174</v>
       </c>
       <c r="B88" s="1" t="s">
@@ -1573,10 +1579,10 @@
       </c>
     </row>
     <row r="89">
-      <c r="A89" s="2" t="s">
+      <c r="A89" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="B89" s="2" t="s">
+      <c r="B89" s="1" t="s">
         <v>177</v>
       </c>
     </row>
@@ -1589,18 +1595,18 @@
       </c>
     </row>
     <row r="91">
-      <c r="A91" s="2" t="s">
+      <c r="A91" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="B91" s="2" t="s">
+      <c r="B91" s="1" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="92">
-      <c r="A92" s="2" t="s">
+      <c r="A92" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="B92" s="2" t="s">
+      <c r="B92" s="1" t="s">
         <v>183</v>
       </c>
     </row>
@@ -1608,48 +1614,56 @@
       <c r="A93" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="B93" s="2" t="s">
+      <c r="B93" s="1" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="94">
-      <c r="A94" s="2" t="s">
+      <c r="A94" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="B94" s="2" t="s">
+      <c r="B94" s="1" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="95">
-      <c r="A95" s="2" t="s">
+      <c r="A95" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="B95" s="2" t="s">
+      <c r="B95" s="1" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="96">
-      <c r="A96" s="2" t="s">
+      <c r="A96" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="B96" s="2" t="s">
+      <c r="B96" s="1" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="97">
-      <c r="A97" s="2" t="s">
+      <c r="A97" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="B97" s="2" t="s">
+      <c r="B97" s="1" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="98">
-      <c r="A98" s="2" t="s">
+      <c r="A98" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="B98" s="1" t="s">
+      <c r="B98" s="3" t="s">
         <v>195</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>197</v>
       </c>
     </row>
   </sheetData>
